--- a/Deliverable #2/4. Testing Documentation/iNFT Testing Document.xlsx
+++ b/Deliverable #2/4. Testing Documentation/iNFT Testing Document.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Documentation\Deliverable #2\4. Testing Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E439BE97-F718-4A09-9F9B-EC236A7E69C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA8C25E-91D1-464F-B6A3-48B1EC75BB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21585" yWindow="6540" windowWidth="21540" windowHeight="18060" activeTab="1" xr2:uid="{EBFC9699-B5E0-4B19-ABF6-05E9BF08B5A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{EBFC9699-B5E0-4B19-ABF6-05E9BF08B5A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="397">
   <si>
     <t>Requirement Tested</t>
   </si>
@@ -1218,6 +1218,15 @@
   </si>
   <si>
     <t>a log message is added to the log file if the system cannot delete stored files for any reason</t>
+  </si>
+  <si>
+    <t>Test Case #</t>
+  </si>
+  <si>
+    <t>Expected  Output</t>
+  </si>
+  <si>
+    <t>Pass/ Fail</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1294,8 +1303,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1617,17 +1629,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,7 +1659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1667,7 +1679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f>A3+1</f>
         <v>2</v>
@@ -1688,7 +1700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A19" si="0">A4+1</f>
         <v>3</v>
@@ -1709,7 +1721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1730,7 +1742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1751,7 +1763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1772,7 +1784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1793,7 +1805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1814,7 +1826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1835,7 +1847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1856,7 +1868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1877,7 +1889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1898,7 +1910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1919,7 +1931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1940,7 +1952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1961,7 +1973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1982,7 +1994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2011,1786 +2023,1788 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63821FE-6B6A-465B-BE70-CB00E678A0C0}">
-  <dimension ref="A2:F85"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" ht="101" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A68" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <f>A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f t="shared" ref="A5:A69" si="0">A4+1</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E56" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E57" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
+      <c r="E58" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E59" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="E60" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="E61" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="E62" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="E63" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="E64" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E65" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="E66" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="E67" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E68" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <f t="shared" ref="A69:A84" si="1">A68+1</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="E69" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="E70" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="E71" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="E72" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <f t="shared" ref="A70:A85" si="1">A69+1</f>
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="E73" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="E74" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="E75" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="E76" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="E77" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="E78" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E79" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="E80" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="E81" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="E82" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="E83" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="E84" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F84" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3802,14 +3816,14 @@
       <selection activeCell="D3" sqref="D3:D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="str">
         <f>LEFT(C3,6)</f>
         <v>D1.0.0</v>
@@ -3822,7 +3836,7 @@
         <v>User shall be able to log in.</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" t="str">
         <f t="shared" ref="B4:B57" si="0">LEFT(C4,6)</f>
         <v>D1.1.0</v>
@@ -3835,7 +3849,7 @@
         <v>The System shall set the UI height and width.</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>D1.1.1</v>
@@ -3848,7 +3862,7 @@
         <v>The System shall set the UI height to 160px.</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>D1.1.2</v>
@@ -3861,7 +3875,7 @@
         <v>The System shall set the UI width to 400px.</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>D1.2.0</v>
@@ -3874,7 +3888,7 @@
         <v>User shall be able log into an environment.</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>D1.2.1</v>
@@ -3887,7 +3901,7 @@
         <v>User shall be able to choose an environment.</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>D1.2.2</v>
@@ -3900,7 +3914,7 @@
         <v>The System shall configure the local environment to connect to RPC Server HTTP://127.0.0.1:7545 Network ID/Chain ID 5777.</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>D1.2.3</v>
@@ -3913,7 +3927,7 @@
         <v>The System shall configure the test environment to connect to RPC Server https://ropsten.infura.io/v3/c403a4afb4f5439588595f1f242e7c75 Network ID/Chain ID 3.</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>D1.2.4</v>
@@ -3926,7 +3940,7 @@
         <v>The System shall configure the main net environment to connect to https://mainnet.infura.io/v3/c403a4afb4f5439588595f1f242e7c75 Network ID/Chain ID 1.</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>D1.2.5</v>
@@ -3939,7 +3953,7 @@
         <v>If no environment is chosen and the login button is clicked, the System shall pop a toast message error requesting the user to choose an environment.</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>D1.2.6</v>
@@ -3952,7 +3966,7 @@
         <v>The System shall configure the current environment based on the User's environment selection.</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>D1.3.0</v>
@@ -3965,7 +3979,7 @@
         <v>User shall be able log in with a private key hex key.</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>D1.3.1</v>
@@ -3978,7 +3992,7 @@
         <v>If an environment is selected, no key entered, and the login button is clicked, the System shall pop a toast message error requesting the user enter a private key.</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>D1.3.2</v>
@@ -3991,7 +4005,7 @@
         <v>If an environment is selected, the key contains non hex characters, and the login button is clicked, the System shall pop a toast message error stating the private key is invalid.</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>D1.3.3</v>
@@ -4004,7 +4018,7 @@
         <v>If the selected network is unavailable, then the System shall pop a toast error message stating the environment is not available and details will be printed to the log file.</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>D1.4.0</v>
@@ -4017,7 +4031,7 @@
         <v>If login is successful, then the System shall pop a toast with the current address's balance.</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>D1.4.1</v>
@@ -4030,7 +4044,7 @@
         <v>If the account balance is greater than 0, then the System shall use the primary toast message format and show the balance.</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>D1.4.2</v>
@@ -4043,7 +4057,7 @@
         <v>If the account balance is 0, then the System shall use the warning toast message format and warn the user that the current balance is 0.</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>D1.4.3</v>
@@ -4056,7 +4070,7 @@
         <v>The System shall populate a combo box will all NFTs associated with the users address.</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>D1.4.4</v>
@@ -4069,7 +4083,7 @@
         <v>The user's private key shall be held as a variable in memory.</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>D2.0.0</v>
@@ -4082,7 +4096,7 @@
         <v>The System shall instantiate the main block</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>D2.1.0</v>
@@ -4095,7 +4109,7 @@
         <v>The System shall expand UI height and width.</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>D2.1.1</v>
@@ -4108,7 +4122,7 @@
         <v>The System shall set the UI height to 450px.</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>D2.1.2</v>
@@ -4121,7 +4135,7 @@
         <v>The System shall set the UI width to 800px.</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>D2.2.0</v>
@@ -4134,7 +4148,7 @@
         <v>The System shall instantiate a Logout button, a browse button, a file text box, and a NFT combo box.</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>D3.0.0</v>
@@ -4147,7 +4161,7 @@
         <v>The User shall be able to mint a file.</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>D3.1.0</v>
@@ -4160,7 +4174,7 @@
         <v>The User shall be able to select a file.</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>D3.1.1</v>
@@ -4173,7 +4187,7 @@
         <v>The User shall be able to write a file name into the text box.</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>D3.1.2</v>
@@ -4186,7 +4200,7 @@
         <v>The User shall be able to pick a file from the file picker.</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>D3.1.2</v>
@@ -4199,7 +4213,7 @@
         <v>The System shall remove the image or text displayed when the text box is updated.</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>D3.2.0</v>
@@ -4212,7 +4226,7 @@
         <v>The System shall display image files.</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>D3.2.1</v>
@@ -4225,7 +4239,7 @@
         <v>If the file bytecode type is "webp", "jpeg", "png", "gif", or "jpg", then the System shall display the image.</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>D3.3.0</v>
@@ -4238,7 +4252,7 @@
         <v>The System shall display plain text files.</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>D3.3.1</v>
@@ -4251,7 +4265,7 @@
         <v>If the file bytecode type is "txt", "html", "xml", "css", "js", "htm", or "json", then the System shall display the text.</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>D3.4.0</v>
@@ -4264,7 +4278,7 @@
         <v>If there is any text in the file text box, then the System shall make the mint button available.</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>D3.4.1</v>
@@ -4277,7 +4291,7 @@
         <v>If the file does not exists then, then the System shall pop a toast message error stating no such file exists.</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>D3.4.2</v>
@@ -4290,7 +4304,7 @@
         <v>If the file does exists, the System shall attempt to pin the file to the IPFS network.</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>D3.4.3</v>
@@ -4303,7 +4317,7 @@
         <v>If the file does not successfully pin to the IPFS network, the System shall pop a toast message error stating the file did not post to IPFS and post the error to the log file.</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>D3.4.4</v>
@@ -4316,7 +4330,7 @@
         <v>If the files successfully pins to the IPFS network, the System shall take the hash code generated and attempt to mint a token to the Ethereum network.</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>D3.4.5</v>
@@ -4329,7 +4343,7 @@
         <v>If the system successfully mints the token, the System shall pop a toast message primary stating Success!</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>D3.4.6</v>
@@ -4342,7 +4356,7 @@
         <v>If the system fails to mint the token, the System shall pop a toast message error stating the item failed to mint and point error logs to the log file.</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v>D3.4.7</v>
@@ -4355,7 +4369,7 @@
         <v>The System shall populate a combo box will all NFTs associated with the users address.</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>D4.0.0</v>
@@ -4368,7 +4382,7 @@
         <v>The User shall be able to select any NFT from the combo box.</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>D4.1.0</v>
@@ -4381,7 +4395,7 @@
         <v>If the user selects an NFT, the System shall download the NFT to the local system.</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v>D4.1.1</v>
@@ -4394,7 +4408,7 @@
         <v>The System shall assign a generic name to the file.</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" t="str">
         <f t="shared" si="0"/>
         <v>D4.1.2</v>
@@ -4407,7 +4421,7 @@
         <v>The System shall use miming to determine the file type is and assign the proper extension to the file.</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" t="str">
         <f t="shared" si="0"/>
         <v>D4.2.0</v>
@@ -4420,7 +4434,7 @@
         <v>The System shall display image files.</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" t="str">
         <f t="shared" si="0"/>
         <v>D4.2.1</v>
@@ -4433,7 +4447,7 @@
         <v>If the file bytecode type is "webp", "jpeg", "png", "gif", or "jpg", then the System shall display the image.</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" t="str">
         <f t="shared" si="0"/>
         <v>D4.3.0</v>
@@ -4446,7 +4460,7 @@
         <v>The System shall display plain text files.</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" t="str">
         <f t="shared" si="0"/>
         <v>D4.3.1</v>
@@ -4459,7 +4473,7 @@
         <v>If the file bytecode type is "txt", "html", "xml", "css", "js", "htm", or "json", then the System shall display the text in a text block.</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" t="str">
         <f t="shared" si="0"/>
         <v>D4.4.0</v>
@@ -4472,7 +4486,7 @@
         <v>The System shall post the file name to a text box.</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" t="str">
         <f t="shared" si="0"/>
         <v>D4.5.0</v>
@@ -4485,7 +4499,7 @@
         <v>The User shall be able to copy the file path to the clip board.</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" t="str">
         <f t="shared" si="0"/>
         <v>D5.0.0</v>
@@ -4498,7 +4512,7 @@
         <v>Not Implemented.</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" t="str">
         <f t="shared" si="0"/>
         <v>D6.0.0</v>
@@ -4511,7 +4525,7 @@
         <v>The user shall be able to logout.</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" t="str">
         <f t="shared" si="0"/>
         <v>D6.1.0</v>
@@ -4524,7 +4538,7 @@
         <v>The system shall set the account value to null.</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" t="str">
         <f t="shared" ref="B58:B85" si="2">LEFT(C58,6)</f>
         <v>D6.2.0</v>
@@ -4537,7 +4551,7 @@
         <v>The system shall set user environment to null.</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" t="str">
         <f t="shared" si="2"/>
         <v>D6.3.0</v>
@@ -4550,7 +4564,7 @@
         <v>The system shall set to the generic environment settings.</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" t="str">
         <f t="shared" si="2"/>
         <v>D6.4.0</v>
@@ -4563,7 +4577,7 @@
         <v>The system shall display the Login screen.</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" t="str">
         <f t="shared" si="2"/>
         <v>D7.0.0</v>
@@ -4576,7 +4590,7 @@
         <v>The System shall maintain a log of important events.</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" t="str">
         <f t="shared" si="2"/>
         <v>D7.1.0</v>
@@ -4589,7 +4603,7 @@
         <v>The System shall record important events as info events.</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" t="str">
         <f t="shared" si="2"/>
         <v>D7.1.1</v>
@@ -4602,7 +4616,7 @@
         <v>The System shall log a record that will display the url to the item posted to IPFS.</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" t="str">
         <f t="shared" si="2"/>
         <v>D7.1.2</v>
@@ -4615,7 +4629,7 @@
         <v>The System shall log a record the transaction hash.</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" t="str">
         <f t="shared" si="2"/>
         <v>D7.2.0</v>
@@ -4628,7 +4642,7 @@
         <v>The System shall record system errors from the MainWindow.xaml class as error events.</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" t="str">
         <f t="shared" si="2"/>
         <v>D7.2.1</v>
@@ -4641,7 +4655,7 @@
         <v>The System shall log a record when the environment fails to connect.</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" t="str">
         <f t="shared" si="2"/>
         <v>D7.2.2</v>
@@ -4654,7 +4668,7 @@
         <v>The System shall log a record when an error occurs during login.</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" t="str">
         <f t="shared" si="2"/>
         <v>D7.2.3</v>
@@ -4667,7 +4681,7 @@
         <v>The System shall log a record when the System fails to display an image.</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" t="str">
         <f t="shared" si="2"/>
         <v>D7.2.4</v>
@@ -4680,7 +4694,7 @@
         <v>The System shall log a record when the System fails to display a plain text file</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" t="str">
         <f t="shared" si="2"/>
         <v>D7.2.5</v>
@@ -4693,7 +4707,7 @@
         <v>The System shall log a record when the System fails to get a file from the IPFS network.</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" t="str">
         <f t="shared" si="2"/>
         <v>D7.2.6</v>
@@ -4706,7 +4720,7 @@
         <v>The System shall log a record when the System fails to pin a file to IPFS.</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" t="str">
         <f t="shared" si="2"/>
         <v>D7.2.7</v>
@@ -4719,7 +4733,7 @@
         <v>The System shall log a record when the System fails to mint a token to the Ethereum network.</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" t="str">
         <f t="shared" si="2"/>
         <v>D7.3.0</v>
@@ -4732,7 +4746,7 @@
         <v>The System shall record system errors from the Etherium_Interact class as error events.</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" t="str">
         <f t="shared" si="2"/>
         <v>D7.3.1</v>
@@ -4745,7 +4759,7 @@
         <v>The System shall log a record when the System fails to create a local web3 object.</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" t="str">
         <f t="shared" si="2"/>
         <v>D7.3.2</v>
@@ -4758,7 +4772,7 @@
         <v>The System shall log a record when the System fails to create a test web3 object.</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" t="str">
         <f t="shared" si="2"/>
         <v>D7.3.3</v>
@@ -4771,7 +4785,7 @@
         <v>The System shall log a record when the System fails to create a production web3 object.</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" t="str">
         <f t="shared" si="2"/>
         <v>D7.3.4</v>
@@ -4784,7 +4798,7 @@
         <v>The System shall log a record when the System has an error when checking that a token is associated with a particular account.</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" t="str">
         <f t="shared" si="2"/>
         <v>D7.3.5</v>
@@ -4797,7 +4811,7 @@
         <v>The System shall log a record when the System has an error minting the token.</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79" t="str">
         <f t="shared" si="2"/>
         <v>D7.4.0</v>
@@ -4810,7 +4824,7 @@
         <v>The System shall record system errors from the Helpers class as error events.</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" t="str">
         <f t="shared" si="2"/>
         <v>D7.4.1</v>
@@ -4823,7 +4837,7 @@
         <v>The System shall log a record when the System fails to deserialize the JSON object selected.</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" t="str">
         <f t="shared" si="2"/>
         <v>D7.5.0</v>
@@ -4836,7 +4850,7 @@
         <v>The System shall record system errors from the IPFS_Interact class as error event.</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" t="str">
         <f t="shared" si="2"/>
         <v>D7.5.1</v>
@@ -4849,7 +4863,7 @@
         <v>The System shall log a record when the System fails to write the IPFS file to local storage.</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" t="str">
         <f t="shared" si="2"/>
         <v>D7.5.2</v>
@@ -4862,7 +4876,7 @@
         <v>The System shall log a record when the system fails to convert a stream to byte array or the mime guesser throws an error.</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" t="str">
         <f t="shared" si="2"/>
         <v>D7.5.3</v>
@@ -4875,7 +4889,7 @@
         <v>The System shall log a record when the system fails to pin a file to IPFS.</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" t="str">
         <f t="shared" si="2"/>
         <v>D7.5.4</v>
